--- a/Ansible_Commands.xlsx
+++ b/Ansible_Commands.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skumar917\Desktop\Sathish\Learning\MyLearnings\Learn_Ansible\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDE6A19-75CA-4297-BA66-79AE11C8488A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F3BB5B-D154-4D06-87D4-87AF78673F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>S.no</t>
   </si>
@@ -64,6 +75,24 @@
   </si>
   <si>
     <t>Running with playbook #Ansible</t>
+  </si>
+  <si>
+    <t>ansible-inventory --list</t>
+  </si>
+  <si>
+    <t>List hosts from inv file</t>
+  </si>
+  <si>
+    <t>ansible all -m &lt;mod name&gt;</t>
+  </si>
+  <si>
+    <t>All servers</t>
+  </si>
+  <si>
+    <t>ansible -a "command run in remote" all</t>
+  </si>
+  <si>
+    <t>a used to run command in remote</t>
   </si>
 </sst>
 </file>
@@ -93,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -174,17 +203,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,6 +599,36 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ansible_Commands.xlsx
+++ b/Ansible_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skumar917\Desktop\Sathish\Learning\MyLearnings\Learn_Ansible\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F3BB5B-D154-4D06-87D4-87AF78673F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D823809-A2B8-44B5-B3BE-B33F31E7A5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>S.no</t>
   </si>
@@ -93,6 +93,48 @@
   </si>
   <si>
     <t>a used to run command in remote</t>
+  </si>
+  <si>
+    <t>ansible-vault</t>
+  </si>
+  <si>
+    <t>ansible-config</t>
+  </si>
+  <si>
+    <t>shows/modifies ansible configuration</t>
+  </si>
+  <si>
+    <t>ansible-connection</t>
+  </si>
+  <si>
+    <t>connection command for remote clinet</t>
+  </si>
+  <si>
+    <t>ansible-console</t>
+  </si>
+  <si>
+    <t>allows to run the adhoc tasks against the inventory</t>
+  </si>
+  <si>
+    <t>ansible-doc</t>
+  </si>
+  <si>
+    <t>vault encryption</t>
+  </si>
+  <si>
+    <t>ansible-galaxy</t>
+  </si>
+  <si>
+    <t>Managing roles</t>
+  </si>
+  <si>
+    <t>ansible-inventory</t>
+  </si>
+  <si>
+    <t>List inventory details</t>
+  </si>
+  <si>
+    <t>ansible-pull</t>
   </si>
 </sst>
 </file>
@@ -122,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,107 +187,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B15" sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,25 +488,25 @@
     <col min="3" max="3" width="32.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
@@ -600,34 +550,121 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
